--- a/Unity/Assets/Config/Excel/ZuoQiConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ZuoQiConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DA146C-0F40-4C3D-B1D1-055F8984B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98F8FA-E8E7-4F9E-AB9B-AFB5C627CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>升级需要</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,6 +205,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +661,7 @@
   <dimension ref="C3:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -688,7 +684,7 @@
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -703,25 +699,25 @@
         <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -806,7 +802,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
         <v>10001</v>
@@ -815,16 +811,16 @@
         <v>10002</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="5">
         <v>5000</v>
@@ -842,7 +838,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <v>10002</v>
@@ -851,16 +847,16 @@
         <v>10003</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="5">
         <v>10000</v>
@@ -872,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
@@ -880,7 +876,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <v>10003</v>
@@ -889,16 +885,16 @@
         <v>10004</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="K8" s="5">
         <v>16000</v>
@@ -916,7 +912,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5">
         <v>10004</v>
@@ -925,16 +921,16 @@
         <v>10005</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="10">
         <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="5">
         <v>20000</v>
@@ -946,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -954,7 +950,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5">
         <v>10005</v>
@@ -963,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="10">
         <v>5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K10" s="5">
         <v>23000</v>
